--- a/Excel/retirement with iteration.xlsx
+++ b/Excel/retirement with iteration.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2280DD-85F1-499E-84B8-20CEA2F58BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F82BE6B-08CA-402A-AD48-44E0C9C42A34}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,30 +365,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -392,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,26 +393,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +468,3069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time [years]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Salary!$G$10:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>61200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63672.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64945.929599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76181.575420799985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77705.206929216001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79259.311067800299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80844.497289156323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82461.387234939451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96727.207226583952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98661.751371115621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100634.98639853795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102647.68612650871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104700.6398490389</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122813.85054292256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125270.12755378104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127775.53010485666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130331.04070695378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132937.66152109287</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155935.87696424194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159054.59450352675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162235.68639359731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165480.40012146923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168790.00812389862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197990.67952933308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201950.49311991976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>205989.50298231811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210109.29304196453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214311.47890280379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251387.36475298885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256415.11204804858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261543.41428900958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>266774.28257478977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272109.76822628558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>319184.75812943286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>325568.45329202153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332079.82235786197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338721.41880501929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345495.84718111949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>405266.6287434533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73A4-4C90-B929-411C5A8217B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107925239"/>
+        <c:axId val="1319000615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107925239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319000615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319000615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107925239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wealth Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time [years]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wealth!$D$10:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49172.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67867.785900000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90306.569050199992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114248.19923501399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139775.43696371478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166975.3331341896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195939.44659963396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229918.22073626166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266079.56961585366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304542.29469628085</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345431.33096272207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388878.05747311789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>439025.42298250442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>492294.22602007492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>548852.81984729285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>608878.22101639595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>672556.54744748899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>745168.3440609239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>822190.40988985181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>903858.85198274371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>990421.89461224817</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1082140.4913738354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1185745.1858248606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1295520.0683960835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1411793.4475614673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1534910.4432000318</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1665233.8350857343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1811342.3680282685</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1966013.2644416941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2129699.7812360311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2302878.3409415302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2486049.7000451782</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2690148.3745797952</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2906047.9066317906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3134370.2575528454</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3375769.1251317426</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3630931.5431836094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3913794.7775286534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8172-4445-B489-A30A834496A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="982814088"/>
+        <c:axId val="625819175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="982814088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625819175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625819175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982814088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time [years]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Salary!$G$10:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>61200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63672.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64945.929599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76181.575420799985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77705.206929216001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79259.311067800299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80844.497289156323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82461.387234939451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96727.207226583952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98661.751371115621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100634.98639853795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102647.68612650871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104700.6398490389</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122813.85054292256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125270.12755378104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127775.53010485666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130331.04070695378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132937.66152109287</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155935.87696424194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159054.59450352675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162235.68639359731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165480.40012146923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168790.00812389862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197990.67952933308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201950.49311991976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>205989.50298231811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210109.29304196453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214311.47890280379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251387.36475298885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256415.11204804858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261543.41428900958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>266774.28257478977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272109.76822628558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>319184.75812943286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>325568.45329202153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332079.82235786197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338721.41880501929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345495.84718111949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>405266.6287434533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F6B-41E8-B1C4-0A44C5F6CAD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107925239"/>
+        <c:axId val="1319000615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107925239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319000615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319000615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107925239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D44828E-E657-4C0B-9746-CD9ED7BFC61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62BBB87-DBB8-4200-B78D-C754A360C032}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9D44828E-E657-4C0B-9746-CD9ED7BFC61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58AA6F2-AF98-49F3-B920-578887A32B57}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D62BBB87-DBB8-4200-B78D-C754A360C032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,134 +3830,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC7C52-A4E8-4454-AFB5-D7EA39B149A8}">
+  <sheetPr>
+    <tabColor rgb="FF70AD47"/>
+  </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:2" ht="27" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="38">
         <v>60000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="39">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="39">
         <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="39">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="39">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="36"/>
     </row>
     <row r="13" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="38">
         <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="42">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="38">
         <f>Retirement!F4</f>
         <v>563757.78264179034</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="42">
         <f>VLOOKUP(1,Retirement!A9:B48,2)</f>
         <v>19</v>
       </c>
@@ -875,15 +3973,19 @@
     <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA074A31-36C1-4573-A40C-A71FA00C78B4}">
+  <sheetPr>
+    <tabColor rgb="FFF4B084"/>
+  </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,48 +3999,48 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="4" t="str">
         <f>'inputs &amp; outputs'!A3</f>
         <v>Starting Salary</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="3">
         <f>'inputs &amp; outputs'!B3</f>
         <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="4" t="str">
         <f>'inputs &amp; outputs'!A4</f>
         <v>Promotions Every # Years</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <f>'inputs &amp; outputs'!B4</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="4" t="str">
         <f>'inputs &amp; outputs'!A5</f>
         <v>Cost of Living Rate</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <f>'inputs &amp; outputs'!B5</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="6" t="str">
         <f>'inputs &amp; outputs'!A6</f>
         <v>Promotion Rate</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <f>'inputs &amp; outputs'!B6</f>
         <v>0.15</v>
       </c>
@@ -946,1196 +4048,1196 @@
     <row r="6" spans="1:7">
       <c r="B6" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" ht="33" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <f>IF(MOD(A10,$B$3)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="10">
         <f>SUM($B$10:B10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="10">
         <f>(1+B$4)^A10</f>
         <v>1.02</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="10">
         <f>(1+$B$5)^C10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="10">
         <f>E10*D10</f>
         <v>1.02</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="10">
         <f>$B$2*F10</f>
         <v>61200</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="10">
         <f t="shared" ref="B11:B49" si="0">IF(MOD(A11,$B$3)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="10">
         <f>SUM($B$10:B11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <f t="shared" ref="D11:D49" si="1">(1+B$4)^A11</f>
         <v>1.0404</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="10">
         <f t="shared" ref="E11:E49" si="2">(1+$B$5)^C11</f>
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="10">
         <f t="shared" ref="F11:F49" si="3">E11*D11</f>
         <v>1.0404</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="10">
         <f t="shared" ref="G11:G49" si="4">$B$2*F11</f>
         <v>62424</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
         <f>SUM($B$10:B12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="10">
         <f t="shared" si="1"/>
         <v>1.0612079999999999</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="10">
         <f t="shared" si="3"/>
         <v>1.0612079999999999</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="10">
         <f t="shared" si="4"/>
         <v>63672.479999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
         <f>SUM($B$10:B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>1.08243216</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="10">
         <f t="shared" si="3"/>
         <v>1.08243216</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="10">
         <f t="shared" si="4"/>
         <v>64945.929599999996</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="10">
         <f>SUM($B$10:B14)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>1.1040808032</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="10">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="10">
         <f t="shared" si="3"/>
         <v>1.2696929236799999</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="10">
         <f t="shared" si="4"/>
         <v>76181.575420799985</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
         <f>SUM($B$10:B15)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>1.1261624192640001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <f t="shared" si="3"/>
         <v>1.2950867821536001</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="10">
         <f t="shared" si="4"/>
         <v>77705.206929216001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
         <f>SUM($B$10:B16)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>1.1486856676492798</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="10">
         <f t="shared" si="3"/>
         <v>1.3209885177966716</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="10">
         <f t="shared" si="4"/>
         <v>79259.311067800299</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
         <f>SUM($B$10:B17)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>1.1716593810022655</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="10">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="10">
         <f t="shared" si="3"/>
         <v>1.3474082881526053</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="10">
         <f t="shared" si="4"/>
         <v>80844.497289156323</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
         <f>SUM($B$10:B18)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="10">
         <f t="shared" si="1"/>
         <v>1.1950925686223108</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="10">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <f t="shared" si="3"/>
         <v>1.3743564539156574</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="10">
         <f t="shared" si="4"/>
         <v>82461.387234939451</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="10">
         <f>SUM($B$10:B19)</f>
         <v>2</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="10">
         <f t="shared" si="1"/>
         <v>1.2189944199947571</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="10">
         <f t="shared" si="2"/>
         <v>1.3224999999999998</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <f t="shared" si="3"/>
         <v>1.612120120443066</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="10">
         <f t="shared" si="4"/>
         <v>96727.207226583952</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
         <f>SUM($B$10:B20)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="10">
         <f t="shared" si="1"/>
         <v>1.243374308394652</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="10">
         <f t="shared" si="2"/>
         <v>1.3224999999999998</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="10">
         <f t="shared" si="3"/>
         <v>1.644362522851927</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="10">
         <f t="shared" si="4"/>
         <v>98661.751371115621</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
         <f>SUM($B$10:B21)</f>
         <v>2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="10">
         <f t="shared" si="1"/>
         <v>1.2682417945625453</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="10">
         <f t="shared" si="2"/>
         <v>1.3224999999999998</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="10">
         <f t="shared" si="3"/>
         <v>1.6772497733089657</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="10">
         <f t="shared" si="4"/>
         <v>100634.98639853795</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
-      <c r="B22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
         <f>SUM($B$10:B22)</f>
         <v>2</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="10">
         <f t="shared" si="1"/>
         <v>1.2936066304537961</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="10">
         <f t="shared" si="2"/>
         <v>1.3224999999999998</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="10">
         <f t="shared" si="3"/>
         <v>1.710794768775145</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="10">
         <f t="shared" si="4"/>
         <v>102647.68612650871</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
         <f>SUM($B$10:B23)</f>
         <v>2</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="10">
         <f t="shared" si="1"/>
         <v>1.3194787630628722</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="10">
         <f t="shared" si="2"/>
         <v>1.3224999999999998</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="10">
         <f t="shared" si="3"/>
         <v>1.7450106641506482</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="10">
         <f t="shared" si="4"/>
         <v>104700.6398490389</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="10">
         <f>SUM($B$10:B24)</f>
         <v>3</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="10">
         <f t="shared" si="1"/>
         <v>1.3458683383241292</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="10">
         <f t="shared" si="2"/>
         <v>1.5208749999999995</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="10">
         <f t="shared" si="3"/>
         <v>2.0468975090487094</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="10">
         <f t="shared" si="4"/>
         <v>122813.85054292256</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18">
+      <c r="A25" s="10">
         <v>16</v>
       </c>
-      <c r="B25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="B25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
         <f>SUM($B$10:B25)</f>
         <v>3</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <f t="shared" si="1"/>
         <v>1.372785705090612</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="10">
         <f t="shared" si="2"/>
         <v>1.5208749999999995</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <f t="shared" si="3"/>
         <v>2.0878354592296842</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="10">
         <f t="shared" si="4"/>
         <v>125270.12755378104</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18">
+      <c r="A26" s="10">
         <v>17</v>
       </c>
-      <c r="B26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
         <f>SUM($B$10:B26)</f>
         <v>3</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="10">
         <f t="shared" si="1"/>
         <v>1.4002414191924244</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="10">
         <f t="shared" si="2"/>
         <v>1.5208749999999995</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="10">
         <f t="shared" si="3"/>
         <v>2.1295921684142778</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="10">
         <f t="shared" si="4"/>
         <v>127775.53010485666</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18">
+      <c r="A27" s="10">
         <v>18</v>
       </c>
-      <c r="B27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
         <f>SUM($B$10:B27)</f>
         <v>3</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="10">
         <f t="shared" si="1"/>
         <v>1.4282462475762727</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="10">
         <f t="shared" si="2"/>
         <v>1.5208749999999995</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="10">
         <f t="shared" si="3"/>
         <v>2.172184011782563</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="10">
         <f t="shared" si="4"/>
         <v>130331.04070695378</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18">
+      <c r="A28" s="10">
         <v>19</v>
       </c>
-      <c r="B28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
         <f>SUM($B$10:B28)</f>
         <v>3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="10">
         <f t="shared" si="1"/>
         <v>1.4568111725277981</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="10">
         <f t="shared" si="2"/>
         <v>1.5208749999999995</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="10">
         <f t="shared" si="3"/>
         <v>2.2156276920182143</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="10">
         <f t="shared" si="4"/>
         <v>132937.66152109287</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="18">
+      <c r="A29" s="10">
         <v>20</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="10">
         <f>SUM($B$10:B29)</f>
         <v>4</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="10">
         <f t="shared" si="1"/>
         <v>1.4859473959783542</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="10">
         <f t="shared" si="2"/>
         <v>1.7490062499999994</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="10">
         <f t="shared" si="3"/>
         <v>2.5989312827373654</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="10">
         <f t="shared" si="4"/>
         <v>155935.87696424194</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18">
+      <c r="A30" s="10">
         <v>21</v>
       </c>
-      <c r="B30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
         <f>SUM($B$10:B30)</f>
         <v>4</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="10">
         <f t="shared" si="1"/>
         <v>1.5156663438979212</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="10">
         <f t="shared" si="2"/>
         <v>1.7490062499999994</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="10">
         <f t="shared" si="3"/>
         <v>2.6509099083921126</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="10">
         <f t="shared" si="4"/>
         <v>159054.59450352675</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="18">
+      <c r="A31" s="10">
         <v>22</v>
       </c>
-      <c r="B31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="18">
+      <c r="B31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
         <f>SUM($B$10:B31)</f>
         <v>4</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="10">
         <f t="shared" si="1"/>
         <v>1.5459796707758797</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="10">
         <f t="shared" si="2"/>
         <v>1.7490062499999994</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="10">
         <f t="shared" si="3"/>
         <v>2.703928106559955</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="10">
         <f t="shared" si="4"/>
         <v>162235.68639359731</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18">
+      <c r="A32" s="10">
         <v>23</v>
       </c>
-      <c r="B32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="B32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
         <f>SUM($B$10:B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="10">
         <f t="shared" si="1"/>
         <v>1.576899264191397</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="10">
         <f t="shared" si="2"/>
         <v>1.7490062499999994</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="10">
         <f t="shared" si="3"/>
         <v>2.7580066686911535</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="10">
         <f t="shared" si="4"/>
         <v>165480.40012146923</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18">
+      <c r="A33" s="10">
         <v>24</v>
       </c>
-      <c r="B33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="18">
+      <c r="B33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
         <f>SUM($B$10:B33)</f>
         <v>4</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="10">
         <f t="shared" si="1"/>
         <v>1.608437249475225</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="10">
         <f t="shared" si="2"/>
         <v>1.7490062499999994</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="10">
         <f t="shared" si="3"/>
         <v>2.8131668020649769</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="10">
         <f t="shared" si="4"/>
         <v>168790.00812389862</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18">
+      <c r="A34" s="10">
         <v>25</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="10">
         <f>SUM($B$10:B34)</f>
         <v>5</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="10">
         <f t="shared" si="1"/>
         <v>1.6406059944647295</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="10">
         <f t="shared" si="2"/>
         <v>2.0113571874999994</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="10">
         <f t="shared" si="3"/>
         <v>3.2998446588222179</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="10">
         <f t="shared" si="4"/>
         <v>197990.67952933308</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18">
+      <c r="A35" s="10">
         <v>26</v>
       </c>
-      <c r="B35" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="18">
+      <c r="B35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
         <f>SUM($B$10:B35)</f>
         <v>5</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="10">
         <f t="shared" si="1"/>
         <v>1.6734181143540243</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="10">
         <f t="shared" si="2"/>
         <v>2.0113571874999994</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="10">
         <f t="shared" si="3"/>
         <v>3.3658415519986629</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="10">
         <f t="shared" si="4"/>
         <v>201950.49311991976</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18">
+      <c r="A36" s="10">
         <v>27</v>
       </c>
-      <c r="B36" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="B36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
         <f>SUM($B$10:B36)</f>
         <v>5</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="10">
         <f t="shared" si="1"/>
         <v>1.7068864766411045</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="10">
         <f t="shared" si="2"/>
         <v>2.0113571874999994</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="10">
         <f t="shared" si="3"/>
         <v>3.4331583830386352</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="10">
         <f t="shared" si="4"/>
         <v>205989.50298231811</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="18">
+      <c r="A37" s="10">
         <v>28</v>
       </c>
-      <c r="B37" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="18">
+      <c r="B37" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
         <f>SUM($B$10:B37)</f>
         <v>5</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="10">
         <f t="shared" si="1"/>
         <v>1.7410242061739269</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="10">
         <f t="shared" si="2"/>
         <v>2.0113571874999994</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="10">
         <f t="shared" si="3"/>
         <v>3.5018215506994088</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="10">
         <f t="shared" si="4"/>
         <v>210109.29304196453</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18">
+      <c r="A38" s="10">
         <v>29</v>
       </c>
-      <c r="B38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="18">
+      <c r="B38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
         <f>SUM($B$10:B38)</f>
         <v>5</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="10">
         <f t="shared" si="1"/>
         <v>1.7758446902974052</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="10">
         <f t="shared" si="2"/>
         <v>2.0113571874999994</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="10">
         <f t="shared" si="3"/>
         <v>3.5718579817133964</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="10">
         <f t="shared" si="4"/>
         <v>214311.47890280379</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="18">
+      <c r="A39" s="10">
         <v>30</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="10">
         <f>SUM($B$10:B39)</f>
         <v>6</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="10">
         <f t="shared" si="1"/>
         <v>1.8113615841033535</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="10">
         <f t="shared" si="2"/>
         <v>2.3130607656249991</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="10">
         <f t="shared" si="3"/>
         <v>4.1897894125498141</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="10">
         <f t="shared" si="4"/>
         <v>251387.36475298885</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="18">
+      <c r="A40" s="10">
         <v>31</v>
       </c>
-      <c r="B40" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="B40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
         <f>SUM($B$10:B40)</f>
         <v>6</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="10">
         <f t="shared" si="1"/>
         <v>1.8475888157854201</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="10">
         <f t="shared" si="2"/>
         <v>2.3130607656249991</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="10">
         <f t="shared" si="3"/>
         <v>4.2735852008008095</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="10">
         <f t="shared" si="4"/>
         <v>256415.11204804858</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="18">
+      <c r="A41" s="10">
         <v>32</v>
       </c>
-      <c r="B41" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="18">
+      <c r="B41" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
         <f>SUM($B$10:B41)</f>
         <v>6</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="10">
         <f t="shared" si="1"/>
         <v>1.8845405921011289</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="10">
         <f t="shared" si="2"/>
         <v>2.3130607656249991</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="10">
         <f t="shared" si="3"/>
         <v>4.3590569048168266</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="10">
         <f t="shared" si="4"/>
         <v>261543.41428900958</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="18">
+      <c r="A42" s="10">
         <v>33</v>
       </c>
-      <c r="B42" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="B42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
         <f>SUM($B$10:B42)</f>
         <v>6</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="10">
         <f t="shared" si="1"/>
         <v>1.9222314039431516</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="10">
         <f t="shared" si="2"/>
         <v>2.3130607656249991</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="10">
         <f t="shared" si="3"/>
         <v>4.4462380429131629</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="10">
         <f t="shared" si="4"/>
         <v>266774.28257478977</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="18">
+      <c r="A43" s="10">
         <v>34</v>
       </c>
-      <c r="B43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="18">
+      <c r="B43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
         <f>SUM($B$10:B43)</f>
         <v>6</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="10">
         <f t="shared" si="1"/>
         <v>1.9606760320220145</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="10">
         <f t="shared" si="2"/>
         <v>2.3130607656249991</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="10">
         <f t="shared" si="3"/>
         <v>4.535162803771426</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="10">
         <f t="shared" si="4"/>
         <v>272109.76822628558</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="18">
+      <c r="A44" s="10">
         <v>35</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="10">
         <f>SUM($B$10:B44)</f>
         <v>7</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="10">
         <f t="shared" si="1"/>
         <v>1.9998895526624547</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="10">
         <f t="shared" si="2"/>
         <v>2.6600198804687483</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="10">
         <f t="shared" si="3"/>
         <v>5.3197459688238808</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="10">
         <f t="shared" si="4"/>
         <v>319184.75812943286</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="18">
+      <c r="A45" s="10">
         <v>36</v>
       </c>
-      <c r="B45" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="18">
+      <c r="B45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
         <f>SUM($B$10:B45)</f>
         <v>7</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="10">
         <f t="shared" si="1"/>
         <v>2.0398873437157037</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="10">
         <f t="shared" si="2"/>
         <v>2.6600198804687483</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="10">
         <f t="shared" si="3"/>
         <v>5.4261408882003588</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="10">
         <f t="shared" si="4"/>
         <v>325568.45329202153</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="18">
+      <c r="A46" s="10">
         <v>37</v>
       </c>
-      <c r="B46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="18">
+      <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="10">
         <f>SUM($B$10:B46)</f>
         <v>7</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <f t="shared" si="1"/>
         <v>2.080685090590018</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="10">
         <f t="shared" si="2"/>
         <v>2.6600198804687483</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="10">
         <f t="shared" si="3"/>
         <v>5.5346637059643662</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="10">
         <f t="shared" si="4"/>
         <v>332079.82235786197</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="18">
+      <c r="A47" s="10">
         <v>38</v>
       </c>
-      <c r="B47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="18">
+      <c r="B47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="10">
         <f>SUM($B$10:B47)</f>
         <v>7</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="10">
         <f t="shared" si="1"/>
         <v>2.1222987924018186</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="10">
         <f t="shared" si="2"/>
         <v>2.6600198804687483</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="10">
         <f t="shared" si="3"/>
         <v>5.6453569800836547</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="10">
         <f t="shared" si="4"/>
         <v>338721.41880501929</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="18">
+      <c r="A48" s="10">
         <v>39</v>
       </c>
-      <c r="B48" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="10">
         <f>SUM($B$10:B48)</f>
         <v>7</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="10">
         <f t="shared" si="1"/>
         <v>2.1647447682498542</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="10">
         <f t="shared" si="2"/>
         <v>2.6600198804687483</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="10">
         <f t="shared" si="3"/>
         <v>5.7582641196853253</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="10">
         <f t="shared" si="4"/>
         <v>345495.84718111949</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="18">
+      <c r="A49" s="10">
         <v>40</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="10">
         <f>SUM($B$10:B49)</f>
         <v>8</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="10">
         <f t="shared" si="1"/>
         <v>2.2080396636148518</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="10">
         <f t="shared" si="2"/>
         <v>3.0590228625390603</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="10">
         <f t="shared" si="3"/>
         <v>6.7544438123908881</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="10">
         <f t="shared" si="4"/>
         <v>405266.6287434533</v>
       </c>
@@ -2151,10 +5253,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C482EB2-A8C6-44A3-82F7-245B040EC683}">
-  <dimension ref="A1:G49"/>
+  <sheetPr>
+    <tabColor rgb="FFF4B084"/>
+  </sheetPr>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2162,786 +5267,785 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="76.5" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="76.5" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <f>'inputs &amp; outputs'!B3</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10" t="str">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="str">
         <f>'inputs &amp; outputs'!A9</f>
         <v>Savings Rate</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <f>'inputs &amp; outputs'!B9</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14" t="str">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="str">
         <f>'inputs &amp; outputs'!A10</f>
         <v>Interest Rate</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <f>'inputs &amp; outputs'!B10</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" ht="36" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="22" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
         <f>Salary!A10</f>
         <v>1</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <f>Salary!G10</f>
         <v>61200</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="10">
         <f>B10*$B$4</f>
         <v>15300</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="10">
         <f>C10</f>
         <v>15300</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
         <f>Salary!A11</f>
         <v>2</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="10">
         <f>Salary!G11</f>
         <v>62424</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="10">
         <f t="shared" ref="C11:C49" si="0">B11*$B$4</f>
         <v>15606</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <f>D10*(1+$B$5)+C11</f>
         <v>31671</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18">
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
         <f>Salary!A12</f>
         <v>3</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="10">
         <f>Salary!G12</f>
         <v>63672.479999999996</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>15918.119999999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="10">
         <f t="shared" ref="D12:D49" si="1">D11*(1+$B$5)+C12</f>
         <v>49172.67</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
         <f>Salary!A13</f>
         <v>4</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="10">
         <f>Salary!G13</f>
         <v>64945.929599999996</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>16236.482399999999</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>67867.785900000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18">
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
         <f>Salary!A14</f>
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="10">
         <f>Salary!G14</f>
         <v>76181.575420799985</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>19045.393855199996</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>90306.569050199992</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18">
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
         <f>Salary!A15</f>
         <v>6</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="10">
         <f>Salary!G15</f>
         <v>77705.206929216001</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>19426.301732304</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>114248.19923501399</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18">
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
         <f>Salary!A16</f>
         <v>7</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <f>Salary!G16</f>
         <v>79259.311067800299</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>19814.827766950075</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>139775.43696371478</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <f>Salary!A17</f>
         <v>8</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="10">
         <f>Salary!G17</f>
         <v>80844.497289156323</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>20211.124322289081</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>166975.3331341896</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <f>Salary!A18</f>
         <v>9</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="10">
         <f>Salary!G18</f>
         <v>82461.387234939451</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>20615.346808734863</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="10">
         <f t="shared" si="1"/>
         <v>195939.44659963396</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18">
+      <c r="A19" s="10">
         <f>Salary!A19</f>
         <v>10</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="10">
         <f>Salary!G19</f>
         <v>96727.207226583952</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>24181.801806645988</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="10">
         <f t="shared" si="1"/>
         <v>229918.22073626166</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18">
+      <c r="A20" s="10">
         <f>Salary!A20</f>
         <v>11</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="10">
         <f>Salary!G20</f>
         <v>98661.751371115621</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>24665.437842778905</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="10">
         <f t="shared" si="1"/>
         <v>266079.56961585366</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <f>Salary!A21</f>
         <v>12</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="10">
         <f>Salary!G21</f>
         <v>100634.98639853795</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>25158.746599634487</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="10">
         <f t="shared" si="1"/>
         <v>304542.29469628085</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18">
+      <c r="A22" s="10">
         <f>Salary!A22</f>
         <v>13</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="10">
         <f>Salary!G22</f>
         <v>102647.68612650871</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>25661.921531627177</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="10">
         <f t="shared" si="1"/>
         <v>345431.33096272207</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18">
+      <c r="A23" s="10">
         <f>Salary!A23</f>
         <v>14</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="10">
         <f>Salary!G23</f>
         <v>104700.6398490389</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>26175.159962259724</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="10">
         <f t="shared" si="1"/>
         <v>388878.05747311789</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18">
+      <c r="A24" s="10">
         <f>Salary!A24</f>
         <v>15</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="10">
         <f>Salary!G24</f>
         <v>122813.85054292256</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>30703.462635730641</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="10">
         <f t="shared" si="1"/>
         <v>439025.42298250442</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18">
+      <c r="A25" s="10">
         <f>Salary!A25</f>
         <v>16</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="10">
         <f>Salary!G25</f>
         <v>125270.12755378104</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>31317.531888445261</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <f t="shared" si="1"/>
         <v>492294.22602007492</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18">
+      <c r="A26" s="10">
         <f>Salary!A26</f>
         <v>17</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="10">
         <f>Salary!G26</f>
         <v>127775.53010485666</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="10">
         <f t="shared" si="0"/>
         <v>31943.882526214165</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="10">
         <f t="shared" si="1"/>
         <v>548852.81984729285</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18">
+      <c r="A27" s="10">
         <f>Salary!A27</f>
         <v>18</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="10">
         <f>Salary!G27</f>
         <v>130331.04070695378</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="10">
         <f t="shared" si="0"/>
         <v>32582.760176738444</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="10">
         <f t="shared" si="1"/>
         <v>608878.22101639595</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18">
+      <c r="A28" s="10">
         <f>Salary!A28</f>
         <v>19</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="10">
         <f>Salary!G28</f>
         <v>132937.66152109287</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="10">
         <f t="shared" si="0"/>
         <v>33234.415380273218</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="10">
         <f t="shared" si="1"/>
         <v>672556.54744748899</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18">
+      <c r="A29" s="10">
         <f>Salary!A29</f>
         <v>20</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="10">
         <f>Salary!G29</f>
         <v>155935.87696424194</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>38983.969241060484</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="10">
         <f t="shared" si="1"/>
         <v>745168.3440609239</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18">
+      <c r="A30" s="10">
         <f>Salary!A30</f>
         <v>21</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="10">
         <f>Salary!G30</f>
         <v>159054.59450352675</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>39763.648625881688</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="10">
         <f t="shared" si="1"/>
         <v>822190.40988985181</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="10">
         <f>Salary!A31</f>
         <v>22</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="10">
         <f>Salary!G31</f>
         <v>162235.68639359731</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="10">
         <f t="shared" si="0"/>
         <v>40558.921598399327</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="10">
         <f t="shared" si="1"/>
         <v>903858.85198274371</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18">
+      <c r="A32" s="10">
         <f>Salary!A32</f>
         <v>23</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="10">
         <f>Salary!G32</f>
         <v>165480.40012146923</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>41370.100030367306</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="10">
         <f t="shared" si="1"/>
         <v>990421.89461224817</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18">
+      <c r="A33" s="10">
         <f>Salary!A33</f>
         <v>24</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="10">
         <f>Salary!G33</f>
         <v>168790.00812389862</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>42197.502030974654</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="10">
         <f t="shared" si="1"/>
         <v>1082140.4913738354</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18">
+      <c r="A34" s="10">
         <f>Salary!A34</f>
         <v>25</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="10">
         <f>Salary!G34</f>
         <v>197990.67952933308</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
         <v>49497.66988233327</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="10">
         <f t="shared" si="1"/>
         <v>1185745.1858248606</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18">
+      <c r="A35" s="10">
         <f>Salary!A35</f>
         <v>26</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="10">
         <f>Salary!G35</f>
         <v>201950.49311991976</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>50487.62327997994</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="10">
         <f t="shared" si="1"/>
         <v>1295520.0683960835</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18">
+      <c r="A36" s="10">
         <f>Salary!A36</f>
         <v>27</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="10">
         <f>Salary!G36</f>
         <v>205989.50298231811</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="10">
         <f t="shared" si="0"/>
         <v>51497.375745579528</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="10">
         <f t="shared" si="1"/>
         <v>1411793.4475614673</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18">
+      <c r="A37" s="10">
         <f>Salary!A37</f>
         <v>28</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="10">
         <f>Salary!G37</f>
         <v>210109.29304196453</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="10">
         <f t="shared" si="0"/>
         <v>52527.323260491132</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="10">
         <f t="shared" si="1"/>
         <v>1534910.4432000318</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18">
+      <c r="A38" s="10">
         <f>Salary!A38</f>
         <v>29</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="10">
         <f>Salary!G38</f>
         <v>214311.47890280379</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="10">
         <f t="shared" si="0"/>
         <v>53577.869725700948</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="10">
         <f t="shared" si="1"/>
         <v>1665233.8350857343</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18">
+      <c r="A39" s="10">
         <f>Salary!A39</f>
         <v>30</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="10">
         <f>Salary!G39</f>
         <v>251387.36475298885</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="10">
         <f t="shared" si="0"/>
         <v>62846.841188247214</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="10">
         <f t="shared" si="1"/>
         <v>1811342.3680282685</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18">
+      <c r="A40" s="10">
         <f>Salary!A40</f>
         <v>31</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="10">
         <f>Salary!G40</f>
         <v>256415.11204804858</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="10">
         <f t="shared" si="0"/>
         <v>64103.778012012146</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="10">
         <f t="shared" si="1"/>
         <v>1966013.2644416941</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="18">
+      <c r="A41" s="10">
         <f>Salary!A41</f>
         <v>32</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="10">
         <f>Salary!G41</f>
         <v>261543.41428900958</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="10">
         <f t="shared" si="0"/>
         <v>65385.853572252396</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="10">
         <f t="shared" si="1"/>
         <v>2129699.7812360311</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18">
+      <c r="A42" s="10">
         <f>Salary!A42</f>
         <v>33</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="10">
         <f>Salary!G42</f>
         <v>266774.28257478977</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="10">
         <f t="shared" si="0"/>
         <v>66693.570643697443</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="10">
         <f t="shared" si="1"/>
         <v>2302878.3409415302</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18">
+      <c r="A43" s="10">
         <f>Salary!A43</f>
         <v>34</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="10">
         <f>Salary!G43</f>
         <v>272109.76822628558</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="10">
         <f t="shared" si="0"/>
         <v>68027.442056571395</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="10">
         <f t="shared" si="1"/>
         <v>2486049.7000451782</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18">
+      <c r="A44" s="10">
         <f>Salary!A44</f>
         <v>35</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="10">
         <f>Salary!G44</f>
         <v>319184.75812943286</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="10">
         <f t="shared" si="0"/>
         <v>79796.189532358214</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="10">
         <f t="shared" si="1"/>
         <v>2690148.3745797952</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18">
+      <c r="A45" s="10">
         <f>Salary!A45</f>
         <v>36</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="10">
         <f>Salary!G45</f>
         <v>325568.45329202153</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="10">
         <f t="shared" si="0"/>
         <v>81392.113323005382</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="10">
         <f t="shared" si="1"/>
         <v>2906047.9066317906</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18">
+      <c r="A46" s="10">
         <f>Salary!A46</f>
         <v>37</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="10">
         <f>Salary!G46</f>
         <v>332079.82235786197</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="10">
         <f t="shared" si="0"/>
         <v>83019.955589465491</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <f t="shared" si="1"/>
         <v>3134370.2575528454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18">
+      <c r="A47" s="10">
         <f>Salary!A47</f>
         <v>38</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="10">
         <f>Salary!G47</f>
         <v>338721.41880501929</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="10">
         <f t="shared" si="0"/>
         <v>84680.354701254822</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="10">
         <f t="shared" si="1"/>
         <v>3375769.1251317426</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18">
+      <c r="A48" s="10">
         <f>Salary!A48</f>
         <v>39</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="10">
         <f>Salary!G48</f>
         <v>345495.84718111949</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="10">
         <f t="shared" si="0"/>
         <v>86373.961795279873</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="10">
         <f t="shared" si="1"/>
         <v>3630931.5431836094</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18">
+      <c r="A49" s="10">
         <f>Salary!A49</f>
         <v>40</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="10">
         <f>Salary!G49</f>
         <v>405266.6287434533</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="10">
         <f t="shared" si="0"/>
         <v>101316.65718586333</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="10">
         <f t="shared" si="1"/>
         <v>3913794.7775286534</v>
       </c>
@@ -2957,10 +6061,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13AE437-0DC4-4C6E-B79C-F34C862DB777}">
+  <sheetPr>
+    <tabColor rgb="FFF4B084"/>
+  </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,54 +6080,54 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="5" t="str">
         <f>'inputs &amp; outputs'!A13</f>
         <v>Annual cash Spend in Retirement</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <f>'inputs &amp; outputs'!B13</f>
         <v>40000</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="4" t="str">
         <f>'inputs &amp; outputs'!A14</f>
         <v>Years in Retirement</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <f>'inputs &amp; outputs'!B14</f>
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="16">
         <f>PV(B5,B4,-B3,0)</f>
         <v>563757.78264179034</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="14">
         <f>'inputs &amp; outputs'!B10</f>
         <v>0.05</v>
       </c>
@@ -3029,734 +6136,734 @@
       <c r="B6" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="10">
         <f>Salary!A10</f>
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="10">
         <f>Wealth!D10</f>
         <v>15300</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="10">
         <f>IF(C9&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <f>SUM($D$9:D9)</f>
         <v>0</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <f>Salary!A11</f>
         <v>2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="10">
         <f>Wealth!D11</f>
         <v>31671</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="10">
         <f>IF(C10&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <f>SUM($D$9:D10)</f>
         <v>0</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="10">
         <f>Salary!A12</f>
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="10">
         <f>Wealth!D12</f>
         <v>49172.67</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <f>IF(C11&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18">
+      <c r="A12" s="10">
         <f>SUM($D$9:D11)</f>
         <v>0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="10">
         <f>Salary!A13</f>
         <v>4</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="10">
         <f>Wealth!D13</f>
         <v>67867.785900000003</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="10">
         <f>IF(C12&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18">
+      <c r="A13" s="10">
         <f>SUM($D$9:D12)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="10">
         <f>Salary!A14</f>
         <v>5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="10">
         <f>Wealth!D14</f>
         <v>90306.569050199992</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <f>IF(C13&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18">
+      <c r="A14" s="10">
         <f>SUM($D$9:D13)</f>
         <v>0</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="10">
         <f>Salary!A15</f>
         <v>6</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="10">
         <f>Wealth!D15</f>
         <v>114248.19923501399</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="10">
         <f>IF(C14&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18">
+      <c r="A15" s="10">
         <f>SUM($D$9:D14)</f>
         <v>0</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="10">
         <f>Salary!A16</f>
         <v>7</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="10">
         <f>Wealth!D16</f>
         <v>139775.43696371478</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <f>IF(C15&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18">
+      <c r="A16" s="10">
         <f>SUM($D$9:D15)</f>
         <v>0</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <f>Salary!A17</f>
         <v>8</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="10">
         <f>Wealth!D17</f>
         <v>166975.3331341896</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <f>IF(C16&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <f>SUM($D$9:D16)</f>
         <v>0</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="10">
         <f>Salary!A18</f>
         <v>9</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="10">
         <f>Wealth!D18</f>
         <v>195939.44659963396</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="10">
         <f>IF(C17&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <f>SUM($D$9:D17)</f>
         <v>0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="10">
         <f>Salary!A19</f>
         <v>10</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="10">
         <f>Wealth!D19</f>
         <v>229918.22073626166</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="10">
         <f>IF(C18&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18">
+      <c r="A19" s="10">
         <f>SUM($D$9:D18)</f>
         <v>0</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="10">
         <f>Salary!A20</f>
         <v>11</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="10">
         <f>Wealth!D20</f>
         <v>266079.56961585366</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="10">
         <f>IF(C19&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18">
+      <c r="A20" s="10">
         <f>SUM($D$9:D19)</f>
         <v>0</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="10">
         <f>Salary!A21</f>
         <v>12</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="10">
         <f>Wealth!D21</f>
         <v>304542.29469628085</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="10">
         <f>IF(C20&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <f>SUM($D$9:D20)</f>
         <v>0</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="10">
         <f>Salary!A22</f>
         <v>13</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="10">
         <f>Wealth!D22</f>
         <v>345431.33096272207</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="10">
         <f>IF(C21&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18">
+      <c r="A22" s="10">
         <f>SUM($D$9:D21)</f>
         <v>0</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="10">
         <f>Salary!A23</f>
         <v>14</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="10">
         <f>Wealth!D23</f>
         <v>388878.05747311789</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="10">
         <f>IF(C22&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18">
+      <c r="A23" s="10">
         <f>SUM($D$9:D22)</f>
         <v>0</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="10">
         <f>Salary!A24</f>
         <v>15</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="10">
         <f>Wealth!D24</f>
         <v>439025.42298250442</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="10">
         <f>IF(C23&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18">
+      <c r="A24" s="10">
         <f>SUM($D$9:D23)</f>
         <v>0</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="10">
         <f>Salary!A25</f>
         <v>16</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="10">
         <f>Wealth!D25</f>
         <v>492294.22602007492</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="10">
         <f>IF(C24&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18">
+      <c r="A25" s="10">
         <f>SUM($D$9:D24)</f>
         <v>0</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="10">
         <f>Salary!A26</f>
         <v>17</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="10">
         <f>Wealth!D26</f>
         <v>548852.81984729285</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <f>IF(C25&gt;$F$4,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18">
+      <c r="A26" s="10">
         <f>SUM($D$9:D25)</f>
         <v>0</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="10">
         <f>Salary!A27</f>
         <v>18</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="10">
         <f>Wealth!D27</f>
         <v>608878.22101639595</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="10">
         <f>IF(C26&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18">
+      <c r="A27" s="10">
         <f>SUM($D$9:D26)</f>
         <v>1</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="10">
         <f>Salary!A28</f>
         <v>19</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="10">
         <f>Wealth!D28</f>
         <v>672556.54744748899</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="10">
         <f>IF(C27&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18">
+      <c r="A28" s="10">
         <f>SUM($D$9:D27)</f>
         <v>2</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="10">
         <f>Salary!A29</f>
         <v>20</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="10">
         <f>Wealth!D29</f>
         <v>745168.3440609239</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="10">
         <f>IF(C28&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18">
+      <c r="A29" s="10">
         <f>SUM($D$9:D28)</f>
         <v>3</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="10">
         <f>Salary!A30</f>
         <v>21</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="10">
         <f>Wealth!D30</f>
         <v>822190.40988985181</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="10">
         <f>IF(C29&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18">
+      <c r="A30" s="10">
         <f>SUM($D$9:D29)</f>
         <v>4</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="10">
         <f>Salary!A31</f>
         <v>22</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="10">
         <f>Wealth!D31</f>
         <v>903858.85198274371</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="10">
         <f>IF(C30&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="10">
         <f>SUM($D$9:D30)</f>
         <v>5</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="10">
         <f>Salary!A32</f>
         <v>23</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="10">
         <f>Wealth!D32</f>
         <v>990421.89461224817</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="10">
         <f>IF(C31&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18">
+      <c r="A32" s="10">
         <f>SUM($D$9:D31)</f>
         <v>6</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="10">
         <f>Salary!A33</f>
         <v>24</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="10">
         <f>Wealth!D33</f>
         <v>1082140.4913738354</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="10">
         <f>IF(C32&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18">
+      <c r="A33" s="10">
         <f>SUM($D$9:D32)</f>
         <v>7</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="10">
         <f>Salary!A34</f>
         <v>25</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="10">
         <f>Wealth!D34</f>
         <v>1185745.1858248606</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="10">
         <f>IF(C33&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18">
+      <c r="A34" s="10">
         <f>SUM($D$9:D33)</f>
         <v>8</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="10">
         <f>Salary!A35</f>
         <v>26</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="10">
         <f>Wealth!D35</f>
         <v>1295520.0683960835</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="10">
         <f>IF(C34&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18">
+      <c r="A35" s="10">
         <f>SUM($D$9:D34)</f>
         <v>9</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="10">
         <f>Salary!A36</f>
         <v>27</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="10">
         <f>Wealth!D36</f>
         <v>1411793.4475614673</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="10">
         <f>IF(C35&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18">
+      <c r="A36" s="10">
         <f>SUM($D$9:D35)</f>
         <v>10</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="10">
         <f>Salary!A37</f>
         <v>28</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="10">
         <f>Wealth!D37</f>
         <v>1534910.4432000318</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="10">
         <f>IF(C36&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18">
+      <c r="A37" s="10">
         <f>SUM($D$9:D36)</f>
         <v>11</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="10">
         <f>Salary!A38</f>
         <v>29</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="10">
         <f>Wealth!D38</f>
         <v>1665233.8350857343</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="10">
         <f>IF(C37&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18">
+      <c r="A38" s="10">
         <f>SUM($D$9:D37)</f>
         <v>12</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="10">
         <f>Salary!A39</f>
         <v>30</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="10">
         <f>Wealth!D39</f>
         <v>1811342.3680282685</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="10">
         <f>IF(C38&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18">
+      <c r="A39" s="10">
         <f>SUM($D$9:D38)</f>
         <v>13</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="10">
         <f>Salary!A40</f>
         <v>31</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="10">
         <f>Wealth!D40</f>
         <v>1966013.2644416941</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="10">
         <f>IF(C39&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18">
+      <c r="A40" s="10">
         <f>SUM($D$9:D39)</f>
         <v>14</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="10">
         <f>Salary!A41</f>
         <v>32</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="10">
         <f>Wealth!D41</f>
         <v>2129699.7812360311</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="10">
         <f>IF(C40&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="18">
+      <c r="A41" s="10">
         <f>SUM($D$9:D40)</f>
         <v>15</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="10">
         <f>Salary!A42</f>
         <v>33</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="10">
         <f>Wealth!D42</f>
         <v>2302878.3409415302</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="10">
         <f>IF(C41&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18">
+      <c r="A42" s="10">
         <f>SUM($D$9:D41)</f>
         <v>16</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="10">
         <f>Salary!A43</f>
         <v>34</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="10">
         <f>Wealth!D43</f>
         <v>2486049.7000451782</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="10">
         <f>IF(C42&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18">
+      <c r="A43" s="10">
         <f>SUM($D$9:D42)</f>
         <v>17</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="10">
         <f>Salary!A44</f>
         <v>35</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="10">
         <f>Wealth!D44</f>
         <v>2690148.3745797952</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="10">
         <f>IF(C43&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18">
+      <c r="A44" s="10">
         <f>SUM($D$9:D43)</f>
         <v>18</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="10">
         <f>Salary!A45</f>
         <v>36</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="10">
         <f>Wealth!D45</f>
         <v>2906047.9066317906</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="10">
         <f>IF(C44&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18">
+      <c r="A45" s="10">
         <f>SUM($D$9:D44)</f>
         <v>19</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="10">
         <f>Salary!A46</f>
         <v>37</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="10">
         <f>Wealth!D46</f>
         <v>3134370.2575528454</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="10">
         <f>IF(C45&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18">
+      <c r="A46" s="10">
         <f>SUM($D$9:D45)</f>
         <v>20</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="10">
         <f>Salary!A47</f>
         <v>38</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="10">
         <f>Wealth!D47</f>
         <v>3375769.1251317426</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <f>IF(C46&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18">
+      <c r="A47" s="10">
         <f>SUM($D$9:D46)</f>
         <v>21</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="10">
         <f>Salary!A48</f>
         <v>39</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="10">
         <f>Wealth!D48</f>
         <v>3630931.5431836094</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="10">
         <f>IF(C47&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18">
+      <c r="A48" s="10">
         <f>SUM($D$9:D47)</f>
         <v>22</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="10">
         <f>Salary!A49</f>
         <v>40</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="10">
         <f>Wealth!D49</f>
         <v>3913794.7775286534</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="10">
         <f>IF(C48&gt;$F$4,1,0)</f>
         <v>1</v>
       </c>
